--- a/balance-java/db/数据库设计(balance_账户明细).xlsx
+++ b/balance-java/db/数据库设计(balance_账户明细).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\account-manager\balance-java\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EB070-1964-400E-9F0F-6D355001DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15960" tabRatio="661" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>修改日期</t>
   </si>
@@ -175,19 +181,28 @@
   </si>
   <si>
     <t>update_time</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数型</t>
+  </si>
+  <si>
+    <t>0 不删除 1 删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,163 +229,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,194 +267,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -578,256 +276,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -845,63 +301,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,19 +606,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="5" customWidth="1"/>
@@ -1210,7 +628,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,39 +649,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.32692307692308" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5769230769231" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6538461538462" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28846153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.68269230769231" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.49038461538461" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="27.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="16.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" spans="1:13">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="29" spans="1:12">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +751,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="29" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +784,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="29" spans="2:12">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -1397,7 +814,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -1424,7 +841,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1451,7 +868,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -1478,7 +895,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -1502,7 +919,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -1526,7 +943,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -1553,7 +970,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -1577,7 +994,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="2:12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -1601,61 +1018,88 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="29" spans="1:13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E2:E3 E7:E12 E14:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E1048576 E2:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H2:H3 H7:H12 H14:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H1048576 H2:H13" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J4 I5:J5 I6:J6 I7:I12 J7:J12 I2:J3 I14:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:J1048576 I2:J13" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/balance-java/db/数据库设计(balance_账户明细).xlsx
+++ b/balance-java/db/数据库设计(balance_账户明细).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\account-manager\balance-java\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monezhao/Pictures/GitHub/account-manager/balance-java/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EB070-1964-400E-9F0F-6D355001DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E112640-4133-1648-B52E-D4B88FDA8ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>修改日期</t>
   </si>
@@ -126,9 +126,6 @@
     <t>账户类型</t>
   </si>
   <si>
-    <t>account_type</t>
-  </si>
-  <si>
     <t>balanceType</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
   </si>
   <si>
     <t>0 不删除 1 删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属用户id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +223,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -221,11 +231,13 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -283,7 +295,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -305,6 +317,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,17 +633,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="74.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,31 +671,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.375" style="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -721,7 +736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="30">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -751,7 +766,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -784,7 +799,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="30">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -792,7 +807,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -810,19 +825,19 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -841,261 +856,287 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="B7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1">
+        <v>255</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E1048576 E2:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1048576 E2:E14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H1048576 H2:H13" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H1048576 H2:H14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:J1048576 I2:J13" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J1048576 I2:J14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/balance-java/db/数据库设计(balance_账户明细).xlsx
+++ b/balance-java/db/数据库设计(balance_账户明细).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monezhao/Pictures/GitHub/account-manager/balance-java/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E112640-4133-1648-B52E-D4B88FDA8ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC42A80-FD52-AC4D-BCD2-6048D45A8877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>修改日期</t>
   </si>
@@ -204,6 +204,11 @@
   </si>
   <si>
     <t>balance_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否
+模糊</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14"/>
@@ -688,14 +693,14 @@
     <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.33203125" style="1"/>
+    <col min="10" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -727,16 +732,19 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:14" ht="30">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -764,9 +772,12 @@
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -797,9 +808,12 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="30">
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="30">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -825,11 +839,14 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -854,9 +871,12 @@
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -881,9 +901,12 @@
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -908,9 +931,12 @@
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -935,9 +961,12 @@
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -959,9 +988,12 @@
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -983,9 +1015,12 @@
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1010,9 +1045,12 @@
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1034,9 +1072,12 @@
       <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="15">
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="15">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1058,12 +1099,15 @@
       <c r="J13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="15">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="7">
         <v>12</v>
@@ -1090,9 +1134,12 @@
       <c r="J14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="30">
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="30">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1171,16 @@
         <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1192,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H1048576 H2:H14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J1048576 I2:J14" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:K1048576 I2:K14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
